--- a/ERP_InputDatasheet.xlsx
+++ b/ERP_InputDatasheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>UserName</t>
   </si>
@@ -153,7 +153,13 @@
     <t>18991213</t>
   </si>
   <si>
-    <t>6200489012</t>
+    <t>SEJRRequestImport_PL2_JournalPeriodName</t>
+  </si>
+  <si>
+    <t>Feb-14</t>
+  </si>
+  <si>
+    <t>2127471519</t>
   </si>
 </sst>
 </file>
@@ -195,12 +201,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,9 +502,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -518,7 +525,7 @@
     <col min="21" max="21" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,8 +601,11 @@
       <c r="Y1" t="s">
         <v>38</v>
       </c>
+      <c r="Z1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -621,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -670,6 +680,9 @@
       </c>
       <c r="Y2" t="s">
         <v>39</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
